--- a/src/attributions/attributions_ig_traj_479.xlsx
+++ b/src/attributions/attributions_ig_traj_479.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06500276486994419</v>
+        <v>0.07139953444969278</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09150785764376176</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02339429166837737</v>
+        <v>-0.01602168511262622</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.05505460815880316</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05354893633822997</v>
+        <v>0.03875142239040252</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04162683830656719</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01290727721576848</v>
+        <v>-0.01289194415297034</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.05783524818425716</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.00483136190776614</v>
+        <v>-0.0009713226172184085</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004950119190116935</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02845073199837967</v>
+        <v>0.004996205439942352</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.003494337967196825</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.08011386735590299</v>
+        <v>0.009582214647650683</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.06864127767877543</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06692158250504573</v>
+        <v>0.0265208422713107</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.0002001635550124991</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.05127000226128154</v>
+        <v>0.0135709014575706</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.008590792309134425</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01952982318090337</v>
+        <v>-0.01162795383168634</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02004141429854002</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1674522332321825</v>
+        <v>0.08400873207677031</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03624139967949244</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01330875137493999</v>
+        <v>-0.01396814899144188</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07014904026721261</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.001760457166289775</v>
+        <v>0.01378412238283536</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.02580264584327263</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.0004615259085374938</v>
+        <v>-0.01248622332760605</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.003706436192815624</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0423294333341698</v>
+        <v>0.02832267135097588</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.04056358161838907</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.001507813752456634</v>
+        <v>-0.004344373891084968</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01299916743226717</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,22 +2358,22 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.01559274348417495</v>
+        <v>0.04330448078485438</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05972603877937914</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.02822651370507224</v>
+        <v>-0.01547950984393487</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01177691197368583</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2385,22 +2385,22 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.04869286658933551</v>
+        <v>-0.0191982293618027</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02822351837658832</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0129068036487892</v>
+        <v>-0.0009107059939252003</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03525969039246946</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-3.527831233026639e-05</v>
+        <v>0.0044135791433414</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.004050086097283565</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1007356108800656</v>
+        <v>0.004892777546285318</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.006933069834596335</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04834515169512545</v>
+        <v>-0.01440198234858509</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02379438870874656</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.007961459266137812</v>
+        <v>-0.005032926707794378</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03745003030387135</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2463,25 +2463,25 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1442811892311161</v>
+        <v>-0.01446196455978014</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.04019653665391289</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.008170043108241957</v>
+        <v>0.02222363720395278</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.05574692607718632</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02261528345279992</v>
+        <v>-0.01238430664999086</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01239660786493076</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07607693156560148</v>
+        <v>0.01752200441872206</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01158600315035775</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.0613949210722129</v>
+        <v>0.001632261936842522</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06570323980949422</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.007033415008932631</v>
+        <v>-0.001816831419795695</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03211790109698794</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04525961768910523</v>
+        <v>-0.006323196793432335</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.01310153404025205</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.07037515670981422</v>
+        <v>-0.003222585762781166</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01353617041175211</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01976651131683336</v>
+        <v>-0.004006907481916758</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.008182717793676495</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05460537085910985</v>
+        <v>-0.01184983990891016</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03761840477105722</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2601,52 +2601,52 @@
         <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03826670854455859</v>
+        <v>-0.01542712500777567</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01463582244071584</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01813274415302895</v>
+        <v>-0.002185644301545232</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03437566424741156</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01108804255792126</v>
+        <v>-0.01704494540380833</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.0189506778403068</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0002452910441589895</v>
+        <v>-0.01202364653694092</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.005470727618429547</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.001081225897753277</v>
+        <v>0.0002181651313858191</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08946876575250834</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01970954176070913</v>
+        <v>-0.007602346609671556</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03323096186890812</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03363459321834998</v>
+        <v>-0.02002630451299361</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07730816263723522</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01056423402104876</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1634903240369725</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06982699678873529</v>
+        <v>-0.05957912297632333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03585143794156643</v>
+        <v>-0.0732589339777909</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04287177864281581</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.09262755216098355</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02672500470748152</v>
+        <v>-0.01937481357308456</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004169211993072887</v>
+        <v>-0.07568070824455399</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01707598629755433</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3.513858273526294e-11</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.558159469398593e-11</v>
+        <v>-4.830542725352905e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>0.009892399025033815</v>
+        <v>-0.004197563479946471</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.741230197816211e-11</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.06786601717092809</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02435037253174962</v>
+        <v>0.01473980033001599</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02277359868861823</v>
+        <v>0.02094982317661078</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01462932778539682</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,70 +2822,70 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.0008438262524730879</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03549674433417575</v>
+        <v>-0.0450028082943638</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0621952849472269</v>
+        <v>-0.08907633778704487</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.02023356429186663</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3566902099485909</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.08222760909067085</v>
+        <v>-0.00393691882567593</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06295116357540707</v>
+        <v>0.1220902068868685</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1213737425793252</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.00346457400136604</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.003093683659273169</v>
+        <v>-0.02599717737560096</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.006073387921540691</v>
+        <v>-0.04782503523758914</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01193954958484018</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1075411697164742</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01380644135355395</v>
+        <v>0.04421294603511897</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0003962511193128523</v>
+        <v>0.1243073865917837</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.05161103865511481</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1721714011798843</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.08581375334207167</v>
+        <v>0.001753157842138467</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03453654081114831</v>
+        <v>0.0233428236736041</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.07389675319826008</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05057129329459337</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04763416813096709</v>
+        <v>0.01760392661967825</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0007013249696420038</v>
+        <v>0.001185305708692831</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02595597686138023</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.03204079836975427</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.04036020632844755</v>
+        <v>-0.05018879137812214</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.05077879315664272</v>
+        <v>-0.124317553066056</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02413969669672635</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03065438188930058</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.042482999266361</v>
+        <v>0.03453509671886671</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01332975305406693</v>
+        <v>0.01939790494718896</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01530605471428859</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001261243071633256</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002699334477800124</v>
+        <v>0.01719840338708038</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03223209294050211</v>
+        <v>-0.02127190549544266</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01148233660746718</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.06924418230896126</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.006742116157398922</v>
+        <v>-0.01798753109520717</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02194912068330631</v>
+        <v>-0.002361295953502642</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.003792546163958266</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.02043022053265629</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.02068341837450623</v>
+        <v>-0.04028269989057206</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.008740967261650631</v>
+        <v>-0.02271948278100969</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.05057036496701652</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.03674927854501311</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.03792311455604525</v>
+        <v>0.05157250126463357</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.06198149989520286</v>
+        <v>0.07452795349604825</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0477947012038484</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03528377349384002</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.04423140417771913</v>
+        <v>0.04574729390974702</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04192887609268381</v>
+        <v>-0.003066221585305524</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.03897556248344516</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.0395698749599576</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03439616516958025</v>
+        <v>0.03232818647214987</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.009821042669738619</v>
+        <v>0.01916878473027629</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02572932186316562</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,135 +3200,135 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.06369890601507212</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04556444735794135</v>
+        <v>-0.0434416281583985</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.05757312024349331</v>
+        <v>-0.01050397851638606</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03727672507198494</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.05381818408062922</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.004495317097337631</v>
+        <v>0.04097617148961146</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03693217283165649</v>
+        <v>0.05888860022554488</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04061383621034101</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03739993075518917</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.02588918448393196</v>
+        <v>-0.006072468082656691</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01537555887019995</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02770043151740394</v>
+        <v>0.02398664292917492</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1105152699892601</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01757028203948086</v>
+        <v>-0.01162107307099911</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.006712145030263491</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02508186218221754</v>
+        <v>0.007352693486814473</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0654677638176613</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.553400770682285e-05</v>
+        <v>-0.01588813511307793</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.008740035643631339</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -3337,46 +3337,46 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00443526754665892</v>
+        <v>0.000272544135146705</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.005775287697306014</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.329311707694146e-11</v>
+        <v>-1.842671809587223e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.003882931987151454</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03042487941344201</v>
+        <v>0.01834431475142168</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06259716633856902</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01995414284001159</v>
+        <v>0.02268481542407502</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.001521891114349768</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03891754786927264</v>
+        <v>0.004313642545274915</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.0007699513109459826</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.00961336225656742</v>
+        <v>-0.02002333504984137</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.00518995609702015</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1415491818194442</v>
+        <v>0.0480941835441079</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03235347595500923</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.03739359940653703</v>
+        <v>-0.008982609948899841</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01045515388742351</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.006421296747605119</v>
+        <v>0.003613558147995633</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.04179862346569888</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.004176914037727934</v>
+        <v>-0.009666053031829588</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.002301195661922072</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03505938293294641</v>
+        <v>0.02994688841905552</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03975674871573023</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03661031277934539</v>
+        <v>0.01385458636910079</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01100811466509395</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.008241006590627349</v>
+        <v>0.01558185984681623</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05850149006513029</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01745639795910545</v>
+        <v>-0.01081294401010686</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01705657079917652</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03095266070973015</v>
+        <v>-0.000994583342171552</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03171041397139871</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02072482288229836</v>
+        <v>-0.000257266740198107</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.005845035532951343</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,136 +3547,136 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04081668838093627</v>
+        <v>0.001121286592430041</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.0301156054166455</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0992045117600311</v>
+        <v>0.0002498544898934007</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01297910544349893</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03277717519742673</v>
+        <v>0.003241507185262722</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.0282478477080008</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.009843341602551424</v>
+        <v>0.0009134729061021752</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.00534450624004482</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1217861895551024</v>
+        <v>0.0002725561908093833</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01293799660372364</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0005560069509594305</v>
+        <v>-0.0001769591339785926</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01854352739842934</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01155559200286167</v>
+        <v>0.002952960622473533</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.005338365642042974</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07529464992367176</v>
+        <v>0.01532805418772906</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.001295479441033427</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02101465609438385</v>
+        <v>-0.01261083050120959</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.03854273825888387</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.002946609569891482</v>
+        <v>-0.008392274698628872</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.0001416575401298109</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03152393651264077</v>
+        <v>0.004990822122341513</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05392023751449936</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05428734334673218</v>
+        <v>0.001088902198944256</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.003112247882666975</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01387108408742556</v>
+        <v>-0.0005190996276297727</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001878668196840734</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03617834857896578</v>
+        <v>-0.01495114580838899</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03267055687016056</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3739,82 +3739,82 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02432495059487464</v>
+        <v>0.004201732321611864</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02284732840368775</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.02267847802659859</v>
+        <v>0.0006050135360783761</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.008679327691727469</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02977510304341349</v>
+        <v>-0.008880892367668019</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.01941649105942199</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002718174719356075</v>
+        <v>-0.01443469331389967</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02187545948153116</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.01218753578880651</v>
+        <v>-0.009087733667304544</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04508943892177052</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.01488977088704853</v>
+        <v>-0.001313067307588127</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.002802555368670244</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,72 +3823,72 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02748123681881109</v>
+        <v>-0.02002770484562873</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03953057781229403</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.00499531319460852</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1066362792539601</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01132199043893443</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0671336273366098</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003120050755587077</v>
+        <v>-0.01760568760079733</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.01575065426123854</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.04644229878619352</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01677995046914091</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04278881711588813</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04721363026926925</v>
+        <v>-0.0634254616860689</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,49 +3900,49 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.02020734686837751</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.003899286224012389</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008317960853832044</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.008166727686193663</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0122064541726461</v>
+        <v>-0.001238751616171664</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.00102904111243655</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04091042878291111</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.004022196512033605</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02136406385768498</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.008599663647705817</v>
+        <v>0.02887825283920527</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,82 +3951,82 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01528449742508059</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03055414462940071</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.008805330128400363</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04957786238490135</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.009772565129927198</v>
+        <v>-0.02782205812592124</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01725468776031048</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.192095638171095</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03405774757535066</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06289033950133902</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02305555950912432</v>
+        <v>0.07386015125062045</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.001012346858955811</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.009251301741454381</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.008111587920142842</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.04352387985959266</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.008197726273752634</v>
+        <v>-0.03599779679418483</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.01348032067064879</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02282276823259587</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05247784955322549</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03604776387972272</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07176798846356573</v>
+        <v>0.08368079410336023</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02925828950284317</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09755763751352983</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.009409211770201591</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06640040873926835</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.05037686319277365</v>
+        <v>0.01063939724810602</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.006667870680620413</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02319411246316869</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01238465801811853</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.03425200674087941</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02309751377222962</v>
+        <v>0.001520004607055848</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.0286836853406205</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02508740823623158</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.008828997866042215</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.09104958827115847</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0003687326345285722</v>
+        <v>-0.01898944259323247</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01107860265088655</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01862374168460578</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01491022717337043</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02417942741487293</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01766631115261572</v>
+        <v>0.007087569618733087</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.02790261079175445</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.0763494744338898</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02134470054518801</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02420673081456574</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.0171971874134095</v>
+        <v>0.02941518104180406</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.008329877716224449</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.0006566478780515833</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01481136041163895</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.009170923354305069</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.036999297556026</v>
+        <v>-0.003959416496685061</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,28 +4221,28 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>5.862293303482847e-05</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.002020673567830446</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02750671789598807</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.03663930538953659</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0003294863668943219</v>
+        <v>-0.0167308814593141</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,130 +4251,130 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.009566075120558456</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.001894208974476019</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.007187410801725744</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.01858566906799614</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.005090103137636024</v>
+        <v>0.03115187311191161</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03100306879417376</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03710556108572143</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.0006258078561164424</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01563917211608512</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01225194073428577</v>
+        <v>-0.003244220600435627</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01081807293032947</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02999792731908826</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01094093328405341</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01900683797404757</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02230584478127287</v>
+        <v>0.008157265661142081</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.0157230681779129</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03117483206164035</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.008851587304692104</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.003267301210081706</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.006479328611567877</v>
+        <v>-0.02404298432339338</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01313690578621195</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.05202660894160914</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.001604710641790908</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.01520041308098015</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01814660172570553</v>
+        <v>0.0140120820317036</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.000569356133007277</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03820032248574179</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01260639417382199</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04703661144020861</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03686539638822037</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,28 +4987,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2646396962534087</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1246578595490135</v>
+        <v>-0.1280324789870224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06691839361720354</v>
+        <v>-0.004339887851484578</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04813435394681207</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,124 +5017,124 @@
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.149704965845243</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07831119134186892</v>
+        <v>-0.1292716306074831</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00509868631004358</v>
+        <v>-0.06554426950293017</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.07313144830805164</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.03041106612847649</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.009384115478915607</v>
+        <v>0.004595290996369008</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03098592682612466</v>
+        <v>0.002884612875003466</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.007812009524695606</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1359008507890006</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05948194797575549</v>
+        <v>-0.05297381042865106</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01700067601561293</v>
+        <v>0.03551414239971426</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0178208842354774</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.01626764692524446</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.06063073054364696</v>
+        <v>-0.0339147527630265</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07875682801077911</v>
+        <v>-0.1146686920376815</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.01895804113207773</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4349964592814943</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.06581335250436791</v>
+        <v>0.04133216754319709</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0882435780144827</v>
+        <v>0.2318032231223388</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,214 +5143,214 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1035916421359547</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0004597689425939974</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.04868608521742905</v>
+        <v>-0.04806587747005046</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.006029677468145072</v>
+        <v>-0.1012783034181516</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.003679257646545121</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1872410136541257</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.005162657180336954</v>
+        <v>0.0114044464417693</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01909793862748176</v>
+        <v>0.1660800172853929</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.023186450546056</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2262707282533908</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1062965577378207</v>
+        <v>0.02231906536658064</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03217612718482909</v>
+        <v>0.06174711532257299</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1014461969568337</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.06221023540227029</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.03896757158896139</v>
+        <v>0.0005381980287045412</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.005814470610857191</v>
+        <v>-0.02079003312506499</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01260672996559774</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.1039561606513747</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.06008846097525005</v>
+        <v>-0.1443377208097509</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.05884775584946598</v>
+        <v>-0.1038722649000222</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02552508092577058</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.03405760209331947</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.03947590194010284</v>
+        <v>0.02312989983211365</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01157720466894302</v>
+        <v>-0.005251631792309681</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01060667645563619</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01715001091604108</v>
       </c>
       <c r="DG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01644995534305133</v>
+        <v>0.01281743374746705</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.05552908175474425</v>
+        <v>0.03475273408438201</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05547680662176379</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06723074939463523</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01887131812492701</v>
+        <v>-0.05506438515440654</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.03119031238831048</v>
+        <v>0.00333996564853983</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02027666251150998</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03377705131402971</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.01282200041112273</v>
+        <v>-0.03892062776364633</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01916679114840316</v>
+        <v>-0.01618611569059419</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01275871282255115</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.002264410229994606</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.08831178964240922</v>
+        <v>0.0589959773530827</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02989218426712289</v>
+        <v>0.04366660305393553</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0375028550869202</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,189 +5422,189 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07697956893657786</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.04253915290244731</v>
+        <v>-0.05512944227651852</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03793501293920493</v>
+        <v>-0.01209864021094875</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04563766381765105</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.04781968268576887</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.04017726523876</v>
+        <v>0.008834614856959787</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01658453311957339</v>
+        <v>0.0136740049834206</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02623445123063696</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.06794325709337695</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02979902056027</v>
+        <v>0.03365800055236019</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02151774878797899</v>
+        <v>-2.38740408106739e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.01509893383394386</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.0666647952735335</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.01218418970423125</v>
+        <v>-0.06494069711644651</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.09494425167443069</v>
+        <v>0.1070223248439012</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01476510948780234</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.03882476972535277</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01131235058957229</v>
+        <v>-0.08432708338912304</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.006608837855912363</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.3908219075285943</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2369426111713411</v>
+        <v>-0.1512159213289025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0400779934758794</v>
+        <v>-0.1318728358704841</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.002346167336943587</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06552970317295329</v>
+        <v>0.004609632705529615</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2280168244470099</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2002251506546521</v>
+        <v>-0.1342428849076075</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03820094363139947</v>
+        <v>-0.2215993028917125</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.005854319338270244</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.08939639065404946</v>
+        <v>0.0006306156175901829</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.08598627799117993</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.009246575169320896</v>
+        <v>-0.02028264467151022</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05042183197031463</v>
+        <v>0.001637758862690403</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03180876133276608</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01513072470906892</v>
+        <v>-0.0014053125379973</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.09325102501483253</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07996199273168393</v>
+        <v>0.08843510927094184</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.04880759686228411</v>
+        <v>-0.04073906360424784</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0340868596030367</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03962038544176283</v>
+        <v>0.01275472679790028</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.01611616615611691</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.09651383930715833</v>
+        <v>-0.06836727396240037</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04161609195602706</v>
+        <v>-0.1026806221936826</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03426013522293225</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002065216356854868</v>
+        <v>0.01558556531238518</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,295 +5694,295 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.6188180547958182</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1097999087830984</v>
+        <v>0.00771316881147477</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1178509025487532</v>
+        <v>0.2206386572729572</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01562361969828402</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.09354392465676396</v>
+        <v>0.06621105680041539</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.003382698074440439</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1077227712978625</v>
+        <v>-0.05148807455454593</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.06589193500165563</v>
+        <v>-0.2337526568053145</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.02048925641415485</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.009482349705103987</v>
+        <v>0.0006155225369341722</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.2334224162478439</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01149410637306628</v>
+        <v>0.1380702653704958</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05119319657859634</v>
+        <v>0.1725467337086382</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.01822117603450817</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.05016123856827018</v>
+        <v>0.04514351897683621</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.3048666777268512</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1311444807140195</v>
+        <v>0.04284765283749589</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01926466099970987</v>
+        <v>0.05359464003683596</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01678453211314125</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.07452920809216391</v>
+        <v>0.009561330278816272</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.0956538137723776</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.06217085295514952</v>
+        <v>0.02072150549874699</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.00246528915389874</v>
+        <v>-0.003073225236550374</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.0009704213524279942</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01906139967962604</v>
+        <v>0.005215147099142192</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1358404709237368</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.03981624031877001</v>
+        <v>-0.1585998832869732</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1016926114136889</v>
+        <v>-0.05529520791791158</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.01713829604123818</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03139815082422988</v>
+        <v>0.06487698449674976</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.06191935176581022</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04632874801695884</v>
+        <v>0.05242613948345431</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.0005734396547768442</v>
+        <v>0.00385975447211645</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01684181665965809</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.008599404878680559</v>
+        <v>0.005552999935752389</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.06960155576657928</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05277629263940117</v>
+        <v>0.033320609706617</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03297303894794342</v>
+        <v>0.003097780588542462</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.01070230858546399</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03378880092557898</v>
+        <v>-0.001351571441211141</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1055040144408874</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.04222583420609744</v>
+        <v>-0.03637992336612913</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.06331145967617748</v>
+        <v>0.03588819715959097</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03313235458904955</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.04557044510826586</v>
+        <v>-0.0305490448291198</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.02678188477734071</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.003841272810343137</v>
+        <v>-0.04796098497854182</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02602417537747886</v>
+        <v>-0.0677608616665781</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.04034548012646223</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.05274083042729</v>
+        <v>-0.02665284800402118</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.04435821644211534</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1508543641002678</v>
+        <v>0.07309068040472588</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.02859856958028173</v>
+        <v>0.04023747755798153</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.003295677105962956</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.005278891257378333</v>
+        <v>0.04204885535517429</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,79 +5991,79 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1070358458149199</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.04049691463156376</v>
+        <v>0.09866403191893912</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.001583077181256841</v>
+        <v>-0.04042144200430482</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1003243514410604</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.01233379746492545</v>
+        <v>0.005376119041658617</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.07158830351050555</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.04859209162634553</v>
+        <v>0.03885303465336321</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004199034753363267</v>
+        <v>0.02508021300245191</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01810773923926321</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02013916320604071</v>
+        <v>0.004390096587841292</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.07364770362041044</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.05738320802643097</v>
+        <v>-0.04755846977946231</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06158859305001251</v>
+        <v>-0.02831752558118759</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.01841885999959259</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0001196413725311049</v>
+        <v>0.004399309781326429</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1212914775703828</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.03614647117750142</v>
+        <v>-0.08487325388990702</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.04552679133697746</v>
+        <v>-0.08712865457857528</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.05952189779948427</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.03305659335005871</v>
+        <v>0.01012281835384593</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.1204343867891371</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.05800623242245312</v>
+        <v>-0.03526994853906716</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.002903907985504337</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.01503353263785277</v>
+        <v>0.02809727829323812</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,28 +6125,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.09999161023650074</v>
+        <v>0.1825123902271597</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1867919017387517</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05411705851568849</v>
+        <v>-0.121276828800906</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.07179094206312067</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.07703174530069147</v>
+        <v>0.1094734691554305</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.147978832174042</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01767175722693675</v>
+        <v>-0.1246381316599394</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.07598665250246359</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.007842372505140187</v>
+        <v>0.0280488982409446</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02352626114720369</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05640346616306651</v>
+        <v>0.008855450740669383</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.0259209127098245</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.05715812013342234</v>
+        <v>0.04586984028912585</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06720509575452194</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.05350460124311083</v>
+        <v>0.03430388206854839</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02414779108190174</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01992506574134812</v>
+        <v>0.03603364916495302</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02075697518744504</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02984675827765157</v>
+        <v>-0.02957608195659469</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01625932541386517</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.06122005106464848</v>
+        <v>0.2096697132512972</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.05058465935106663</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03239520898473102</v>
+        <v>-0.02805721770911297</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01368420523358471</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.01492906044279353</v>
+        <v>0.03928830335454229</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.08894906243336562</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.0179252046111475</v>
+        <v>-0.08102458235190854</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.04743799894574029</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,58 +6311,58 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.04943927542267719</v>
+        <v>0.1046002967425138</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01775424051964959</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.006247088378499554</v>
+        <v>0.07053501678111786</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.03235552097058832</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02561976532181231</v>
+        <v>0.09732572324016008</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.08638609914992106</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.04464199896096699</v>
+        <v>-0.01712854135455788</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.02286360159943702</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,46 +6371,46 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03742667664001451</v>
+        <v>-0.03810716477573545</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04593676683267385</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01176451117178338</v>
+        <v>0.01463598349790979</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.01983331991805538</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02872591193476101</v>
+        <v>-0.04380339439661761</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04121907693548174</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1262624686933287</v>
+        <v>-0.04170394587237645</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01697782053190654</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,109 +6419,109 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03973307102318561</v>
+        <v>-0.02082622887820391</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.0379988427938226</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008930599793438599</v>
+        <v>0.01342196494419003</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02275537303411986</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05173012752590264</v>
+        <v>-0.0514849480939679</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02728768198253703</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.05499810400427397</v>
+        <v>0.01599005349853938</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.004303663811978555</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.002152562355818107</v>
+        <v>-0.04299513276828729</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.003978592481279876</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0371498414963493</v>
+        <v>0.01598156824759238</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.03711687997428893</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.015443627891828</v>
+        <v>3.928103792134824e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03938814981689939</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02671837192771179</v>
+        <v>-0.04364248204276616</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.0290997686509115</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,79 +6533,79 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02962381740744884</v>
+        <v>0.003584413006599407</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06848568129436429</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02676970837470324</v>
+        <v>0.01457833939622871</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.003784619043013253</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02269190821689859</v>
+        <v>0.01309207742755787</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.005915944097442226</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03656638672985403</v>
+        <v>-0.002790023986869106</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.03370323249114187</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03463752819270485</v>
+        <v>-0.01780035997224232</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03960041725744998</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0187461534966153</v>
+        <v>0.01177295191943037</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.03092198253517786</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
@@ -6614,19 +6614,19 @@
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.03608567629846933</v>
+        <v>-0.02797184681190083</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.04419267337411128</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.01880388555893398</v>
+        <v>-0.04321191412984603</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.02635984894689211</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
@@ -6638,22 +6638,22 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.005415838437977482</v>
+        <v>-0.001652416676666715</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.04954738768103031</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06876227357412869</v>
+        <v>-0.0227866533017265</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.008752192900537036</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,51 +6662,51 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03369579220968349</v>
+        <v>-0.05840082905191733</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04336160904552086</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.02542666110425614</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2151232634366411</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3172906505088992</v>
+        <v>-0.125831006257515</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.009203673271442541</v>
+        <v>-0.01975825082310381</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1330986509496831</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1324686292305458</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2689254642364247</v>
+        <v>-0.1238636323942821</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1006956092036032</v>
+        <v>-0.04393479183065603</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.168214512541996</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,52 +6751,52 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.05049415296528832</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.008581414582491259</v>
+        <v>0.01205387435702944</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.09005145666980854</v>
+        <v>0.03886643548731699</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04013688822934447</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1126778764393452</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.09717526674920278</v>
+        <v>-0.01192689869407794</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01740677090867317</v>
+        <v>-0.02054553340266173</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01205625172790675</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>-0.00424314970866375</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.09119905816952414</v>
+        <v>-0.02767040638558486</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.06858292014367172</v>
+        <v>-0.06314866859785818</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.02875665803908918</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3145494462794939</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1366593144377076</v>
+        <v>0.03819176471313902</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.009800229265711596</v>
+        <v>0.1265751348276277</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,268 +6850,268 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1519685091152979</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.01595124719892993</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1415234688587258</v>
+        <v>-0.06433531018684535</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.005652511701975504</v>
+        <v>-0.1000932622341642</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.01650626999948942</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1149289919296314</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01536335937112135</v>
+        <v>0.00433160687371005</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02160111430316363</v>
+        <v>0.1121136701862579</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.07942460361273594</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1732724226069885</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1382345557920983</v>
+        <v>0.03061608193782053</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02993589812461314</v>
+        <v>0.07473837500575017</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1413960905968681</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.04611260422243151</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.08249839890630942</v>
+        <v>-0.002814616725125711</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03578608936629939</v>
+        <v>-0.01393687515273088</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.04475597194749438</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.06228172463049267</v>
       </c>
       <c r="CO12" t="n">
         <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.08116481657486602</v>
+        <v>-0.1157866838764998</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1172682317248345</v>
+        <v>-0.06224465909588221</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07579792528027568</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.01714648253768487</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.07383716252096521</v>
+        <v>0.01187790992153187</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.04018733534891587</v>
+        <v>-0.008997525834546735</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.04358567074810228</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.0498810104100236</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.05065784901845682</v>
+        <v>0.01203091131986449</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0873618288191409</v>
+        <v>0.06880796818952743</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02222286607497592</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05658511468752801</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02439722297036347</v>
+        <v>0.01088576205655713</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01567511258344179</v>
+        <v>-0.03821078303779638</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.007930341180803964</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.04337956069217432</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01769326554192115</v>
+        <v>0.03788258053997143</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.05244217804985749</v>
+        <v>-0.01353619314625233</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.03707810048059475</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>0.0004455789260190874</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1472356830034282</v>
+        <v>0.03190212051016422</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.03311627899676702</v>
+        <v>0.05300608510151972</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7120,115 +7120,115 @@
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.06207229352101926</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.03346797928680433</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.05991791965167948</v>
+        <v>0.01957711382439269</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04692273046405425</v>
+        <v>0.04259212102933813</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.03778745188079397</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.02954159095461096</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.07257339667018925</v>
+        <v>0.005565173325091996</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.03970651697742313</v>
+        <v>0.006081434250456462</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.05909194261663005</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.05430330758712323</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.0786377511498926</v>
+        <v>0.01490508380489151</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.05565327943042472</v>
+        <v>-0.03358604049945919</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02094853000353879</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.05187517834887407</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.01761158531207103</v>
+        <v>-0.05036674832939306</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0687275021652729</v>
+        <v>0.07038304999014991</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0486986821098063</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.0023408523798144</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.03669644275742771</v>
+        <v>-0.0753584946647541</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.004800615931967419</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,184 +7266,184 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1441890941393531</v>
+        <v>0.4449049544548089</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2950516527743369</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06945381286524097</v>
+        <v>-0.1059310510329614</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.3463082650588206</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1345271535932565</v>
+        <v>0.3284230744185743</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2319992649734739</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0021262712487941</v>
+        <v>-0.09566865540421467</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.345752346063022</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.009849224161605663</v>
+        <v>0.06162918843150633</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03996752379449816</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1014307625450694</v>
+        <v>-0.004255765368220705</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.00298593295894474</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05536626238597131</v>
+        <v>0.06562434265177598</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09543092666281729</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1163129822758025</v>
+        <v>0.05220029159030608</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.03295658186806767</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02388747558975624</v>
+        <v>0.06880628526096823</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03282090290225158</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02143373114731204</v>
+        <v>0.0001010337539613481</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.06638850902049946</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1168881208643987</v>
+        <v>0.3897971262794842</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.07671935169514729</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03018825409003923</v>
+        <v>-0.01830963239499248</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1606340238454899</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.01879696073237732</v>
+        <v>0.1072441122294851</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1350179262849898</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.004723259375653729</v>
+        <v>-0.1031619291080369</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.1162629852614356</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,22 +7452,22 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05103558337326466</v>
+        <v>0.1382127062960247</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.02744018651490655</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001034420207437636</v>
+        <v>0.08159815715518606</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.03012508059879611</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.02425441731661721</v>
+        <v>0.2028925183807914</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.116059636191153</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.07408241351745122</v>
+        <v>-0.04831194544062689</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1055559779566081</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04609926065814936</v>
+        <v>-0.08981095276235199</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.06462921385280315</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00797063782811709</v>
+        <v>-0.009741957777483856</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.07984964463347302</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.009431416610313584</v>
+        <v>-0.08817590468854479</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.02437195553432616</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1433577085031294</v>
+        <v>-0.04267297758471202</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.008504614481452176</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,19 +7563,19 @@
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.03531362281256792</v>
+        <v>-0.06617730232812877</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.05873798885863487</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01015755086275197</v>
+        <v>-0.006865325384676831</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.08446731505763078</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.04711544269416131</v>
+        <v>-0.07163702492287373</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.005008739572275364</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05826815161673602</v>
+        <v>0.01629356248931477</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.01100343696205065</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,31 +7611,31 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.007370219480334804</v>
+        <v>-0.06067934966281456</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01724333842254669</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.04838401565192986</v>
+        <v>0.02193877786832778</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.003160431760741389</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.05805544368182606</v>
+        <v>0.006861474389601172</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.04191179117848347</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01381364409972716</v>
+        <v>0.002092638976165289</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.02337246147823559</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,25 +7671,25 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.03355177002533791</v>
+        <v>-0.03062935135742284</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1106022967302909</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04506160375549947</v>
+        <v>0.01962783863751532</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.0725957799712852</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -7698,22 +7698,22 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01771445715040447</v>
+        <v>-0.009190272091584836</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.01280764969228137</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01370271459783599</v>
+        <v>-0.01964834781810592</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07828470056017631</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,22 +7722,22 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.03984617374270921</v>
+        <v>-0.05999074822635489</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.05700776905924146</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02134586737773019</v>
+        <v>-0.005742369963835867</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.0841886927577494</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,79 +7746,79 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
         <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.01446699052777575</v>
+        <v>-0.05534608688514023</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.08036147342715942</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.05065974084621635</v>
+        <v>-0.01211675354548226</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.05393127177827076</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01657187024679067</v>
+        <v>0.01046679449754562</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.0006663170727946445</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.05098495494597791</v>
+        <v>-0.05260510035760908</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01017861701834309</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02716922651482045</v>
+        <v>-0.03558563725014079</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0486927859788291</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.03914781853227595</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7832,19 +7832,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.4682573534651062</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2766518674999496</v>
+        <v>-0.140243157273693</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02817341624849548</v>
+        <v>-0.1247710308321576</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7853,79 +7853,79 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1269237817091314</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.2901084260252085</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.228476220655006</v>
+        <v>-0.1133715656247606</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.08154647068882261</v>
+        <v>-0.1103659745051044</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1457191787579611</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.09450879257038963</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.002090526526170723</v>
+        <v>-0.01464582630023788</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.08226864702191156</v>
+        <v>0.04376526981732214</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.03947368738969426</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.09707238975251577</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08352974539874476</v>
+        <v>0.001973680560298761</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03331536837877055</v>
+        <v>-0.0009454918587321753</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,214 +7934,214 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03412610075454069</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.006300901886431578</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.09618472699204139</v>
+        <v>-0.06908981192357057</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03103940045343324</v>
+        <v>-0.08382604644178974</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03220523641669461</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.3962046179815384</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1370920250023261</v>
+        <v>0.0551477997507259</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.00937699290963551</v>
+        <v>0.06665661117764873</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1566664215802949</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.01681749698111582</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1216888342070001</v>
+        <v>-0.07522056503357362</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05617703656100389</v>
+        <v>-0.1707578816402287</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.0188068334192519</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.1069373374890849</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.002996613372981056</v>
+        <v>0.04696575043555137</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.003590295191569548</v>
+        <v>0.1364410846440818</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.07083453918372348</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.1904076867160967</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1108246975535888</v>
+        <v>0.06140016290702721</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.03933166096563655</v>
+        <v>0.02585074720846988</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1062309051772426</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1049694886354399</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.07320467473486941</v>
+        <v>0.009035639993685906</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.02853418699013443</v>
+        <v>-0.01488724743259783</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03919015324893919</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.01022669608226754</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.06886948299205134</v>
+        <v>-0.09983269158227712</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1312406569045557</v>
+        <v>-0.08579439714495488</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.04876677093876552</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.08350876504362814</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.06348584971244667</v>
+        <v>0.02848350057685259</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02577722973367703</v>
+        <v>-0.01678564720254667</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -8150,25 +8150,25 @@
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.03064270713080027</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.003530164935685697</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001807219388185855</v>
+        <v>0.01867025625253424</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.05728506998262829</v>
+        <v>0.03520939960272301</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8177,79 +8177,79 @@
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02653079339974859</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.03856106766063016</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.0002827117861231749</v>
+        <v>0.06347431082306511</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01374308137947246</v>
+        <v>-0.05917758693003628</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.04096771028524289</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.03005289852790697</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.01896220910122019</v>
+        <v>-0.002737622315463555</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.01382095177995451</v>
+        <v>-0.07547928463470804</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03308797499970369</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.09092189173011028</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1164781283034277</v>
+        <v>0.03342161635398625</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03058160423813171</v>
+        <v>0.07689933698107632</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
@@ -8258,34 +8258,34 @@
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0473049987382259</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.05927599522268782</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.0151679061551326</v>
+        <v>0.02237318903198982</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.009498395688989053</v>
+        <v>0.02249283909840693</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.000423170771106006</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,52 +8294,52 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.0849214988914625</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.06882332260561906</v>
+        <v>0.0180725538424764</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03491460104561796</v>
+        <v>0.009768315807713876</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.04456286918987599</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.0001026157985287217</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.07104150909349143</v>
+        <v>0.06539476519358232</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.08843608165249364</v>
+        <v>-0.08139893030841194</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03183083938720536</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.007812997463262953</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.006504759351987052</v>
+        <v>-0.01914586120555678</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01618735559787838</v>
+        <v>-0.01170226628051469</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.04441951769137688</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.005553042034291465</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.02924351256586061</v>
+        <v>-0.06496630861189694</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.02006465044263726</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8404,73 +8404,73 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.112268887086421</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8466540078353921</v>
+        <v>-0.4649456889397904</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1442536005495539</v>
+        <v>-0.485831606248343</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2531589535531279</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.8651561789667916</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7479194575795166</v>
+        <v>-0.3952992823390921</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07345433897825801</v>
+        <v>-0.460525965282252</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1542753212916871</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.2296941632517095</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05802911191298724</v>
+        <v>-0.06784313495108012</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3575397003711855</v>
+        <v>-0.02314778804164243</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
@@ -8479,103 +8479,103 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.03574977910117194</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.2412114390956148</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1785581421371945</v>
+        <v>-0.1009274102452145</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.002367890681104501</v>
+        <v>-0.08944714909840515</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.07612562805880875</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.1999330214104973</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.201936785680825</v>
+        <v>-0.01431811081225817</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.02757353009432</v>
+        <v>-0.09221159567540738</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.01784020813586548</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.9060126124911332</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.4199374417942333</v>
+        <v>-0.0872635573915892</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1316188443721657</v>
+        <v>-0.04215708527972121</v>
       </c>
       <c r="AY15" t="n">
         <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.2484212296958709</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.08556172596747143</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.2604796892753318</v>
+        <v>-0.2001041936257979</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03661526774537977</v>
+        <v>-0.4004198490046216</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -8587,157 +8587,157 @@
         <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.05047789185619656</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.1254046968654189</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.01589193472031912</v>
+        <v>0.05766376285856157</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.01075609813193504</v>
+        <v>0.08905162644068269</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.01767374376044148</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.5752264551642292</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.3400723971404906</v>
+        <v>-0.1148565304731582</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.02148793350863886</v>
+        <v>-0.01291490459535738</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0.243279522732442</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.1989558603333093</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.1895776321860465</v>
+        <v>0.09557040622581658</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0009782038150962194</v>
+        <v>0.03780890078107411</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.004306469650530783</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.06140052328873045</v>
       </c>
       <c r="CO15" t="n">
         <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.134376270684942</v>
+        <v>0.003501263801217726</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1945592061822754</v>
+        <v>-0.2061367988431194</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.02164368552123867</v>
+        <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.1613048248733637</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.1713286545752134</v>
+        <v>0.1188222537081343</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01503876947402696</v>
+        <v>0.02580430642807263</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.007997214908628897</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.04760409369680486</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.04208333225493757</v>
+        <v>0.0836786614842452</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01023959433397645</v>
+        <v>-0.003194786825850377</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
@@ -8749,184 +8749,184 @@
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.003855738734460196</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.04603866819897</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.005331183431469905</v>
+        <v>0.00469781917878522</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.00485321064804474</v>
+        <v>-0.1015199506877748</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0.1177059946851362</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>0.0616969093678851</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.07319471014107748</v>
+        <v>-0.1218931935705604</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01634633818744476</v>
+        <v>-0.04993469857318637</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0.1451542058564479</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.1436826429147691</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.2657558913808979</v>
+        <v>0.1047312590987905</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.1098301533668592</v>
+        <v>0.1339289155766028</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.01628957448502892</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.0962776304943405</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.1171558669753715</v>
+        <v>0.08810007755722381</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.08141589461914235</v>
+        <v>0.08831035700405176</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.1075290665285057</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.1660134294499603</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.1569501675609712</v>
+        <v>0.1477948573029332</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.009343735462979475</v>
+        <v>0.01605922030537523</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.04346869002274297</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0.1020251612372549</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.1296068137442745</v>
+        <v>0.09154078336923696</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.06215583559318846</v>
+        <v>-0.04723679605306765</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.07365655186857352</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.02277779299447229</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.006111271448817564</v>
+        <v>-0.3385392337980968</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.02134814189379123</v>
+        <v>0.01784399197774636</v>
       </c>
       <c r="FU15" t="n">
         <v>0</v>
@@ -8935,28 +8935,28 @@
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.034909980733058</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.02235079110482602</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03524356125354975</v>
+        <v>0.003026383278160862</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
@@ -8965,18 +8965,18 @@
         <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0.04872387686997159</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8997,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9024,13 +9024,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -9105,13 +9105,13 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -9132,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
@@ -9159,13 +9159,13 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
@@ -9213,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -9294,13 +9294,13 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
         <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
@@ -9402,13 +9402,13 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
         <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER16" t="n">
         <v>0</v>
@@ -9429,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
         <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
@@ -9456,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
         <v>0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
         <v>0</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>0</v>
